--- a/Team-Data/2013-14/12-14-2013-14.xlsx
+++ b/Team-Data/2013-14/12-14-2013-14.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,160 +733,160 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E2" t="n">
         <v>12</v>
       </c>
       <c r="F2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5</v>
+        <v>0.522</v>
       </c>
       <c r="H2" t="n">
         <v>48.2</v>
       </c>
       <c r="I2" t="n">
-        <v>37.6</v>
+        <v>37.5</v>
       </c>
       <c r="J2" t="n">
-        <v>81.5</v>
+        <v>82.2</v>
       </c>
       <c r="K2" t="n">
-        <v>0.461</v>
+        <v>0.456</v>
       </c>
       <c r="L2" t="n">
-        <v>8.300000000000001</v>
+        <v>8</v>
       </c>
       <c r="M2" t="n">
-        <v>22.8</v>
+        <v>22.3</v>
       </c>
       <c r="N2" t="n">
-        <v>0.366</v>
+        <v>0.36</v>
       </c>
       <c r="O2" t="n">
-        <v>16.1</v>
+        <v>16.3</v>
       </c>
       <c r="P2" t="n">
-        <v>21.5</v>
+        <v>21.9</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.75</v>
+        <v>0.744</v>
       </c>
       <c r="R2" t="n">
-        <v>8.6</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="S2" t="n">
-        <v>32</v>
+        <v>32.2</v>
       </c>
       <c r="T2" t="n">
-        <v>40.6</v>
+        <v>40.9</v>
       </c>
       <c r="U2" t="n">
-        <v>24.4</v>
+        <v>24.5</v>
       </c>
       <c r="V2" t="n">
-        <v>15.3</v>
+        <v>14.7</v>
       </c>
       <c r="W2" t="n">
-        <v>8.4</v>
+        <v>8.5</v>
       </c>
       <c r="X2" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="Y2" t="n">
         <v>4.3</v>
       </c>
-      <c r="Y2" t="n">
-        <v>4.2</v>
-      </c>
       <c r="Z2" t="n">
-        <v>18.8</v>
+        <v>18.6</v>
       </c>
       <c r="AA2" t="n">
-        <v>19.1</v>
+        <v>19.3</v>
       </c>
       <c r="AB2" t="n">
-        <v>99.59999999999999</v>
+        <v>99.3</v>
       </c>
       <c r="AC2" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AD2" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AE2" t="n">
         <v>12</v>
       </c>
       <c r="AF2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG2" t="n">
         <v>13</v>
       </c>
       <c r="AH2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AI2" t="n">
+        <v>16</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>18</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>10</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>11</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>12</v>
+      </c>
+      <c r="AN2" t="n">
         <v>14</v>
       </c>
-      <c r="AJ2" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>9</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>9</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>10</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>11</v>
-      </c>
       <c r="AO2" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AP2" t="n">
         <v>20</v>
       </c>
       <c r="AQ2" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AR2" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AS2" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AT2" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AU2" t="n">
         <v>2</v>
       </c>
       <c r="AV2" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AW2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AX2" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AY2" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AZ2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BA2" t="n">
         <v>24</v>
       </c>
       <c r="BB2" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BC2" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BD2" t="n">
         <v>10</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>12-14-2013-14</t>
+          <t>2013-12-14</t>
         </is>
       </c>
     </row>
@@ -926,13 +993,13 @@
         <v>-1</v>
       </c>
       <c r="AD3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE3" t="n">
         <v>13</v>
       </c>
       <c r="AF3" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AG3" t="n">
         <v>18</v>
@@ -971,37 +1038,37 @@
         <v>24</v>
       </c>
       <c r="AS3" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AT3" t="n">
         <v>23</v>
       </c>
       <c r="AU3" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AV3" t="n">
         <v>23</v>
       </c>
       <c r="AW3" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AX3" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AY3" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AZ3" t="n">
         <v>20</v>
       </c>
       <c r="BA3" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BB3" t="n">
         <v>23</v>
       </c>
       <c r="BC3" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="BD3" t="n">
         <v>10</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>12-14-2013-14</t>
+          <t>2013-12-14</t>
         </is>
       </c>
     </row>
@@ -1108,10 +1175,10 @@
         <v>-6.3</v>
       </c>
       <c r="AD4" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="AE4" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AF4" t="n">
         <v>24</v>
@@ -1144,13 +1211,13 @@
         <v>5</v>
       </c>
       <c r="AP4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AQ4" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AR4" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AS4" t="n">
         <v>20</v>
@@ -1174,7 +1241,7 @@
         <v>7</v>
       </c>
       <c r="AZ4" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="BA4" t="n">
         <v>8</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>12-14-2013-14</t>
+          <t>2013-12-14</t>
         </is>
       </c>
     </row>
@@ -1212,91 +1279,91 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
       </c>
       <c r="F5" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G5" t="n">
-        <v>0.417</v>
+        <v>0.435</v>
       </c>
       <c r="H5" t="n">
         <v>48</v>
       </c>
       <c r="I5" t="n">
-        <v>33.7</v>
+        <v>33.5</v>
       </c>
       <c r="J5" t="n">
-        <v>81.09999999999999</v>
+        <v>80.7</v>
       </c>
       <c r="K5" t="n">
-        <v>0.416</v>
+        <v>0.415</v>
       </c>
       <c r="L5" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="M5" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="N5" t="n">
-        <v>0.288</v>
+        <v>0.293</v>
       </c>
       <c r="O5" t="n">
-        <v>18.6</v>
+        <v>19.2</v>
       </c>
       <c r="P5" t="n">
-        <v>26.1</v>
+        <v>26.9</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.712</v>
+        <v>0.714</v>
       </c>
       <c r="R5" t="n">
         <v>11</v>
       </c>
       <c r="S5" t="n">
-        <v>32.2</v>
+        <v>32.1</v>
       </c>
       <c r="T5" t="n">
-        <v>43.2</v>
+        <v>43.1</v>
       </c>
       <c r="U5" t="n">
-        <v>18.8</v>
+        <v>18.7</v>
       </c>
       <c r="V5" t="n">
         <v>13.4</v>
       </c>
       <c r="W5" t="n">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
       <c r="X5" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="Y5" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="Z5" t="n">
-        <v>19.2</v>
+        <v>19.3</v>
       </c>
       <c r="AA5" t="n">
-        <v>21.8</v>
+        <v>22.3</v>
       </c>
       <c r="AB5" t="n">
-        <v>90.40000000000001</v>
+        <v>90.59999999999999</v>
       </c>
       <c r="AC5" t="n">
         <v>-2.1</v>
       </c>
       <c r="AD5" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AE5" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AF5" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AG5" t="n">
         <v>19</v>
@@ -1308,7 +1375,7 @@
         <v>30</v>
       </c>
       <c r="AJ5" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AK5" t="n">
         <v>30</v>
@@ -1323,10 +1390,10 @@
         <v>30</v>
       </c>
       <c r="AO5" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AP5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AQ5" t="n">
         <v>25</v>
@@ -1335,7 +1402,7 @@
         <v>14</v>
       </c>
       <c r="AS5" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AT5" t="n">
         <v>13</v>
@@ -1347,19 +1414,19 @@
         <v>2</v>
       </c>
       <c r="AW5" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AX5" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AY5" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AZ5" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BA5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BB5" t="n">
         <v>29</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>12-14-2013-14</t>
+          <t>2013-12-14</t>
         </is>
       </c>
     </row>
@@ -1394,103 +1461,103 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E6" t="n">
         <v>9</v>
       </c>
       <c r="F6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G6" t="n">
-        <v>0.409</v>
+        <v>0.429</v>
       </c>
       <c r="H6" t="n">
-        <v>48.9</v>
+        <v>49</v>
       </c>
       <c r="I6" t="n">
-        <v>34.5</v>
+        <v>34.6</v>
       </c>
       <c r="J6" t="n">
-        <v>82</v>
+        <v>81.8</v>
       </c>
       <c r="K6" t="n">
-        <v>0.42</v>
+        <v>0.423</v>
       </c>
       <c r="L6" t="n">
         <v>5.3</v>
       </c>
       <c r="M6" t="n">
-        <v>16.4</v>
+        <v>16.3</v>
       </c>
       <c r="N6" t="n">
         <v>0.324</v>
       </c>
       <c r="O6" t="n">
-        <v>17.4</v>
+        <v>17.8</v>
       </c>
       <c r="P6" t="n">
-        <v>22.2</v>
+        <v>22.7</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.781</v>
+        <v>0.782</v>
       </c>
       <c r="R6" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="S6" t="n">
-        <v>33</v>
+        <v>33.1</v>
       </c>
       <c r="T6" t="n">
-        <v>45.9</v>
+        <v>46.1</v>
       </c>
       <c r="U6" t="n">
-        <v>21.6</v>
+        <v>21.7</v>
       </c>
       <c r="V6" t="n">
-        <v>16.6</v>
+        <v>16.7</v>
       </c>
       <c r="W6" t="n">
         <v>6.4</v>
       </c>
       <c r="X6" t="n">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="Y6" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="Z6" t="n">
         <v>20</v>
       </c>
       <c r="AA6" t="n">
-        <v>21.1</v>
+        <v>21.3</v>
       </c>
       <c r="AB6" t="n">
-        <v>91.59999999999999</v>
+        <v>92.3</v>
       </c>
       <c r="AC6" t="n">
-        <v>-1.2</v>
+        <v>-0.2</v>
       </c>
       <c r="AD6" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AE6" t="n">
         <v>20</v>
       </c>
       <c r="AF6" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AG6" t="n">
         <v>20</v>
       </c>
       <c r="AH6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AI6" t="n">
         <v>27</v>
       </c>
       <c r="AJ6" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AK6" t="n">
         <v>28</v>
@@ -1502,25 +1569,25 @@
         <v>28</v>
       </c>
       <c r="AN6" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AO6" t="n">
         <v>14</v>
       </c>
       <c r="AP6" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AQ6" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AR6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AS6" t="n">
         <v>8</v>
       </c>
       <c r="AT6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AU6" t="n">
         <v>15</v>
@@ -1529,10 +1596,10 @@
         <v>27</v>
       </c>
       <c r="AW6" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AX6" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AY6" t="n">
         <v>30</v>
@@ -1547,7 +1614,7 @@
         <v>28</v>
       </c>
       <c r="BC6" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="BD6" t="n">
         <v>10</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>12-14-2013-14</t>
+          <t>2013-12-14</t>
         </is>
       </c>
     </row>
@@ -1576,55 +1643,55 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E7" t="n">
         <v>9</v>
       </c>
       <c r="F7" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G7" t="n">
-        <v>0.391</v>
+        <v>0.409</v>
       </c>
       <c r="H7" t="n">
         <v>48.7</v>
       </c>
       <c r="I7" t="n">
-        <v>35.8</v>
+        <v>35.6</v>
       </c>
       <c r="J7" t="n">
         <v>84</v>
       </c>
       <c r="K7" t="n">
-        <v>0.426</v>
+        <v>0.424</v>
       </c>
       <c r="L7" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="M7" t="n">
-        <v>19.7</v>
+        <v>19.2</v>
       </c>
       <c r="N7" t="n">
         <v>0.35</v>
       </c>
       <c r="O7" t="n">
-        <v>16</v>
+        <v>15.9</v>
       </c>
       <c r="P7" t="n">
-        <v>21.4</v>
+        <v>21.2</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.748</v>
+        <v>0.747</v>
       </c>
       <c r="R7" t="n">
         <v>11.7</v>
       </c>
       <c r="S7" t="n">
-        <v>31.8</v>
+        <v>32</v>
       </c>
       <c r="T7" t="n">
-        <v>43.5</v>
+        <v>43.7</v>
       </c>
       <c r="U7" t="n">
         <v>18.7</v>
@@ -1636,49 +1703,49 @@
         <v>7.7</v>
       </c>
       <c r="X7" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="Y7" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="Z7" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="AA7" t="n">
         <v>19.3</v>
       </c>
-      <c r="AA7" t="n">
-        <v>19.4</v>
-      </c>
       <c r="AB7" t="n">
-        <v>94.40000000000001</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="AC7" t="n">
-        <v>-5.6</v>
+        <v>-5.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AE7" t="n">
         <v>20</v>
       </c>
       <c r="AF7" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AG7" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AH7" t="n">
         <v>6</v>
       </c>
       <c r="AI7" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AJ7" t="n">
         <v>11</v>
       </c>
       <c r="AK7" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AL7" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AM7" t="n">
         <v>21</v>
@@ -1687,19 +1754,19 @@
         <v>18</v>
       </c>
       <c r="AO7" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AP7" t="n">
         <v>21</v>
       </c>
       <c r="AQ7" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AR7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AS7" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AT7" t="n">
         <v>11</v>
@@ -1708,16 +1775,16 @@
         <v>28</v>
       </c>
       <c r="AV7" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AW7" t="n">
         <v>17</v>
       </c>
       <c r="AX7" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AY7" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AZ7" t="n">
         <v>6</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>12-14-2013-14</t>
+          <t>2013-12-14</t>
         </is>
       </c>
     </row>
@@ -1758,61 +1825,61 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E8" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F8" t="n">
         <v>10</v>
       </c>
       <c r="G8" t="n">
-        <v>0.583</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="H8" t="n">
         <v>48</v>
       </c>
       <c r="I8" t="n">
-        <v>38.9</v>
+        <v>38.8</v>
       </c>
       <c r="J8" t="n">
-        <v>84.8</v>
+        <v>84.59999999999999</v>
       </c>
       <c r="K8" t="n">
-        <v>0.459</v>
+        <v>0.458</v>
       </c>
       <c r="L8" t="n">
         <v>8.699999999999999</v>
       </c>
       <c r="M8" t="n">
-        <v>23</v>
+        <v>22.9</v>
       </c>
       <c r="N8" t="n">
-        <v>0.379</v>
+        <v>0.378</v>
       </c>
       <c r="O8" t="n">
-        <v>16.5</v>
+        <v>16.7</v>
       </c>
       <c r="P8" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.8090000000000001</v>
+        <v>0.8139999999999999</v>
       </c>
       <c r="R8" t="n">
-        <v>10</v>
+        <v>9.9</v>
       </c>
       <c r="S8" t="n">
         <v>31</v>
       </c>
       <c r="T8" t="n">
-        <v>41</v>
+        <v>40.8</v>
       </c>
       <c r="U8" t="n">
-        <v>22.9</v>
+        <v>22.8</v>
       </c>
       <c r="V8" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="W8" t="n">
         <v>9.1</v>
@@ -1824,19 +1891,19 @@
         <v>3.8</v>
       </c>
       <c r="Z8" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="AA8" t="n">
-        <v>18.7</v>
+        <v>18.8</v>
       </c>
       <c r="AB8" t="n">
-        <v>103.1</v>
+        <v>103</v>
       </c>
       <c r="AC8" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AD8" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AE8" t="n">
         <v>8</v>
@@ -1854,10 +1921,10 @@
         <v>5</v>
       </c>
       <c r="AJ8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AK8" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AL8" t="n">
         <v>6</v>
@@ -1866,25 +1933,25 @@
         <v>9</v>
       </c>
       <c r="AN8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AO8" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AP8" t="n">
         <v>26</v>
       </c>
       <c r="AQ8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AR8" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AS8" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AT8" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AU8" t="n">
         <v>9</v>
@@ -1896,22 +1963,22 @@
         <v>5</v>
       </c>
       <c r="AX8" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AY8" t="n">
         <v>5</v>
       </c>
       <c r="AZ8" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BA8" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BB8" t="n">
         <v>9</v>
       </c>
       <c r="BC8" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BD8" t="n">
         <v>10</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>12-14-2013-14</t>
+          <t>2013-12-14</t>
         </is>
       </c>
     </row>
@@ -2018,10 +2085,10 @@
         <v>2</v>
       </c>
       <c r="AD9" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="AE9" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AF9" t="n">
         <v>7</v>
@@ -2057,7 +2124,7 @@
         <v>7</v>
       </c>
       <c r="AQ9" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AR9" t="n">
         <v>5</v>
@@ -2066,7 +2133,7 @@
         <v>7</v>
       </c>
       <c r="AT9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AU9" t="n">
         <v>14</v>
@@ -2075,19 +2142,19 @@
         <v>8</v>
       </c>
       <c r="AW9" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AX9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AY9" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AZ9" t="n">
         <v>21</v>
       </c>
       <c r="BA9" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BB9" t="n">
         <v>12</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>12-14-2013-14</t>
+          <t>2013-12-14</t>
         </is>
       </c>
     </row>
@@ -2200,16 +2267,16 @@
         <v>-1.1</v>
       </c>
       <c r="AD10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AE10" t="n">
         <v>13</v>
       </c>
       <c r="AF10" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AG10" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AH10" t="n">
         <v>14</v>
@@ -2218,7 +2285,7 @@
         <v>8</v>
       </c>
       <c r="AJ10" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AK10" t="n">
         <v>15</v>
@@ -2254,7 +2321,7 @@
         <v>22</v>
       </c>
       <c r="AV10" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AW10" t="n">
         <v>3</v>
@@ -2266,16 +2333,16 @@
         <v>16</v>
       </c>
       <c r="AZ10" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BA10" t="n">
         <v>15</v>
       </c>
       <c r="BB10" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BC10" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="BD10" t="n">
         <v>10</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>12-14-2013-14</t>
+          <t>2013-12-14</t>
         </is>
       </c>
     </row>
@@ -2382,10 +2449,10 @@
         <v>2.8</v>
       </c>
       <c r="AD11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AE11" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AF11" t="n">
         <v>12</v>
@@ -2406,25 +2473,25 @@
         <v>5</v>
       </c>
       <c r="AL11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AM11" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AN11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO11" t="n">
         <v>19</v>
       </c>
       <c r="AP11" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AQ11" t="n">
         <v>22</v>
       </c>
       <c r="AR11" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AS11" t="n">
         <v>3</v>
@@ -2433,7 +2500,7 @@
         <v>8</v>
       </c>
       <c r="AU11" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AV11" t="n">
         <v>28</v>
@@ -2442,10 +2509,10 @@
         <v>18</v>
       </c>
       <c r="AX11" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AY11" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AZ11" t="n">
         <v>29</v>
@@ -2454,7 +2521,7 @@
         <v>17</v>
       </c>
       <c r="BB11" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BC11" t="n">
         <v>9</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>12-14-2013-14</t>
+          <t>2013-12-14</t>
         </is>
       </c>
     </row>
@@ -2564,10 +2631,10 @@
         <v>5.6</v>
       </c>
       <c r="AD12" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE12" t="n">
         <v>5</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>6</v>
       </c>
       <c r="AF12" t="n">
         <v>6</v>
@@ -2576,7 +2643,7 @@
         <v>6</v>
       </c>
       <c r="AH12" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AI12" t="n">
         <v>15</v>
@@ -2588,7 +2655,7 @@
         <v>3</v>
       </c>
       <c r="AL12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AM12" t="n">
         <v>1</v>
@@ -2615,7 +2682,7 @@
         <v>2</v>
       </c>
       <c r="AU12" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AV12" t="n">
         <v>29</v>
@@ -2630,13 +2697,13 @@
         <v>21</v>
       </c>
       <c r="AZ12" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BA12" t="n">
         <v>1</v>
       </c>
       <c r="BB12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BC12" t="n">
         <v>6</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>12-14-2013-14</t>
+          <t>2013-12-14</t>
         </is>
       </c>
     </row>
@@ -2746,7 +2813,7 @@
         <v>8.300000000000001</v>
       </c>
       <c r="AD13" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="AE13" t="n">
         <v>1</v>
@@ -2758,7 +2825,7 @@
         <v>1</v>
       </c>
       <c r="AH13" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AI13" t="n">
         <v>22</v>
@@ -2779,7 +2846,7 @@
         <v>12</v>
       </c>
       <c r="AO13" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP13" t="n">
         <v>13</v>
@@ -2788,7 +2855,7 @@
         <v>6</v>
       </c>
       <c r="AR13" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AS13" t="n">
         <v>4</v>
@@ -2800,22 +2867,22 @@
         <v>18</v>
       </c>
       <c r="AV13" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AW13" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AX13" t="n">
         <v>2</v>
       </c>
       <c r="AY13" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AZ13" t="n">
         <v>8</v>
       </c>
       <c r="BA13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BB13" t="n">
         <v>20</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>12-14-2013-14</t>
+          <t>2013-12-14</t>
         </is>
       </c>
     </row>
@@ -2850,16 +2917,16 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E14" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F14" t="n">
         <v>9</v>
       </c>
       <c r="G14" t="n">
-        <v>0.64</v>
+        <v>0.625</v>
       </c>
       <c r="H14" t="n">
         <v>48.2</v>
@@ -2868,70 +2935,70 @@
         <v>37.6</v>
       </c>
       <c r="J14" t="n">
-        <v>81</v>
+        <v>81.5</v>
       </c>
       <c r="K14" t="n">
-        <v>0.464</v>
+        <v>0.461</v>
       </c>
       <c r="L14" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="M14" t="n">
+        <v>23.7</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.326</v>
+      </c>
+      <c r="O14" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="P14" t="n">
+        <v>29</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0.703</v>
+      </c>
+      <c r="R14" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="S14" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="T14" t="n">
+        <v>42.9</v>
+      </c>
+      <c r="U14" t="n">
         <v>23.6</v>
       </c>
-      <c r="N14" t="n">
-        <v>0.329</v>
-      </c>
-      <c r="O14" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="P14" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0.709</v>
-      </c>
-      <c r="R14" t="n">
-        <v>10.2</v>
-      </c>
-      <c r="S14" t="n">
-        <v>32.4</v>
-      </c>
-      <c r="T14" t="n">
-        <v>42.6</v>
-      </c>
-      <c r="U14" t="n">
-        <v>23.8</v>
-      </c>
       <c r="V14" t="n">
-        <v>14.3</v>
+        <v>14.5</v>
       </c>
       <c r="W14" t="n">
-        <v>8.199999999999999</v>
+        <v>8.1</v>
       </c>
       <c r="X14" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="Y14" t="n">
         <v>3.4</v>
       </c>
       <c r="Z14" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="AA14" t="n">
         <v>24.4</v>
       </c>
       <c r="AB14" t="n">
-        <v>103.7</v>
+        <v>103.3</v>
       </c>
       <c r="AC14" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="AD14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE14" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AF14" t="n">
         <v>7</v>
@@ -2943,10 +3010,10 @@
         <v>23</v>
       </c>
       <c r="AI14" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AJ14" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AK14" t="n">
         <v>7</v>
@@ -2955,7 +3022,7 @@
         <v>14</v>
       </c>
       <c r="AM14" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AN14" t="n">
         <v>26</v>
@@ -2967,40 +3034,40 @@
         <v>2</v>
       </c>
       <c r="AQ14" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AR14" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AS14" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AT14" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AU14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AV14" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AW14" t="n">
         <v>13</v>
       </c>
       <c r="AX14" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AY14" t="n">
         <v>2</v>
       </c>
       <c r="AZ14" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="BA14" t="n">
         <v>2</v>
       </c>
       <c r="BB14" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BC14" t="n">
         <v>7</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>12-14-2013-14</t>
+          <t>2013-12-14</t>
         </is>
       </c>
     </row>
@@ -3032,106 +3099,106 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E15" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F15" t="n">
         <v>12</v>
       </c>
       <c r="G15" t="n">
-        <v>0.478</v>
+        <v>0.455</v>
       </c>
       <c r="H15" t="n">
         <v>48</v>
       </c>
       <c r="I15" t="n">
-        <v>37.5</v>
+        <v>37.8</v>
       </c>
       <c r="J15" t="n">
-        <v>85.3</v>
+        <v>85.59999999999999</v>
       </c>
       <c r="K15" t="n">
-        <v>0.44</v>
+        <v>0.442</v>
       </c>
       <c r="L15" t="n">
-        <v>10</v>
+        <v>10.2</v>
       </c>
       <c r="M15" t="n">
-        <v>25.7</v>
+        <v>26</v>
       </c>
       <c r="N15" t="n">
-        <v>0.391</v>
+        <v>0.392</v>
       </c>
       <c r="O15" t="n">
-        <v>15.5</v>
+        <v>15.3</v>
       </c>
       <c r="P15" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.732</v>
+        <v>0.723</v>
       </c>
       <c r="R15" t="n">
-        <v>10.2</v>
+        <v>10.3</v>
       </c>
       <c r="S15" t="n">
         <v>32.6</v>
       </c>
       <c r="T15" t="n">
-        <v>42.8</v>
+        <v>43</v>
       </c>
       <c r="U15" t="n">
-        <v>23.7</v>
+        <v>24</v>
       </c>
       <c r="V15" t="n">
         <v>15</v>
       </c>
       <c r="W15" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="X15" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="Y15" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="Z15" t="n">
-        <v>20.9</v>
+        <v>21.3</v>
       </c>
       <c r="AA15" t="n">
-        <v>18.7</v>
+        <v>18.8</v>
       </c>
       <c r="AB15" t="n">
-        <v>100.5</v>
+        <v>101.1</v>
       </c>
       <c r="AC15" t="n">
-        <v>-3</v>
+        <v>-3.2</v>
       </c>
       <c r="AD15" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AE15" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AF15" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AG15" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AH15" t="n">
         <v>24</v>
       </c>
       <c r="AI15" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AJ15" t="n">
         <v>5</v>
       </c>
       <c r="AK15" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AL15" t="n">
         <v>1</v>
@@ -3143,13 +3210,13 @@
         <v>5</v>
       </c>
       <c r="AO15" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AP15" t="n">
         <v>22</v>
       </c>
       <c r="AQ15" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AR15" t="n">
         <v>22</v>
@@ -3158,28 +3225,28 @@
         <v>10</v>
       </c>
       <c r="AT15" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AU15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AV15" t="n">
         <v>14</v>
       </c>
       <c r="AW15" t="n">
+        <v>24</v>
+      </c>
+      <c r="AX15" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY15" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ15" t="n">
+        <v>19</v>
+      </c>
+      <c r="BA15" t="n">
         <v>26</v>
-      </c>
-      <c r="AX15" t="n">
-        <v>5</v>
-      </c>
-      <c r="AY15" t="n">
-        <v>14</v>
-      </c>
-      <c r="AZ15" t="n">
-        <v>17</v>
-      </c>
-      <c r="BA15" t="n">
-        <v>27</v>
       </c>
       <c r="BB15" t="n">
         <v>14</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>12-14-2013-14</t>
+          <t>2013-12-14</t>
         </is>
       </c>
     </row>
@@ -3292,16 +3359,16 @@
         <v>-3.5</v>
       </c>
       <c r="AD16" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="AE16" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AF16" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AG16" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AH16" t="n">
         <v>11</v>
@@ -3322,40 +3389,40 @@
         <v>30</v>
       </c>
       <c r="AN16" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AO16" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AP16" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AQ16" t="n">
         <v>12</v>
       </c>
       <c r="AR16" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AS16" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AT16" t="n">
         <v>24</v>
       </c>
       <c r="AU16" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AV16" t="n">
         <v>5</v>
       </c>
       <c r="AW16" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AX16" t="n">
         <v>27</v>
       </c>
       <c r="AY16" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AZ16" t="n">
         <v>9</v>
@@ -3364,7 +3431,7 @@
         <v>21</v>
       </c>
       <c r="BB16" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BC16" t="n">
         <v>23</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>12-14-2013-14</t>
+          <t>2013-12-14</t>
         </is>
       </c>
     </row>
@@ -3396,28 +3463,28 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E17" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F17" t="n">
         <v>6</v>
       </c>
       <c r="G17" t="n">
-        <v>0.739</v>
+        <v>0.727</v>
       </c>
       <c r="H17" t="n">
         <v>48</v>
       </c>
       <c r="I17" t="n">
-        <v>38.1</v>
+        <v>38</v>
       </c>
       <c r="J17" t="n">
         <v>75.3</v>
       </c>
       <c r="K17" t="n">
-        <v>0.506</v>
+        <v>0.504</v>
       </c>
       <c r="L17" t="n">
         <v>8.199999999999999</v>
@@ -3429,22 +3496,22 @@
         <v>0.386</v>
       </c>
       <c r="O17" t="n">
-        <v>18.7</v>
+        <v>18.5</v>
       </c>
       <c r="P17" t="n">
-        <v>24.5</v>
+        <v>24.3</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.761</v>
+        <v>0.762</v>
       </c>
       <c r="R17" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="S17" t="n">
-        <v>29.2</v>
+        <v>29.1</v>
       </c>
       <c r="T17" t="n">
-        <v>35.7</v>
+        <v>35.5</v>
       </c>
       <c r="U17" t="n">
         <v>23.7</v>
@@ -3456,25 +3523,25 @@
         <v>9.5</v>
       </c>
       <c r="X17" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="Y17" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="Z17" t="n">
         <v>20.7</v>
       </c>
       <c r="AA17" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="AB17" t="n">
-        <v>103.1</v>
+        <v>102.6</v>
       </c>
       <c r="AC17" t="n">
         <v>7</v>
       </c>
       <c r="AD17" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AE17" t="n">
         <v>5</v>
@@ -3489,7 +3556,7 @@
         <v>24</v>
       </c>
       <c r="AI17" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AJ17" t="n">
         <v>30</v>
@@ -3498,7 +3565,7 @@
         <v>1</v>
       </c>
       <c r="AL17" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AM17" t="n">
         <v>15</v>
@@ -3507,13 +3574,13 @@
         <v>6</v>
       </c>
       <c r="AO17" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AP17" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AQ17" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AR17" t="n">
         <v>30</v>
@@ -3528,28 +3595,28 @@
         <v>4</v>
       </c>
       <c r="AV17" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AW17" t="n">
         <v>2</v>
       </c>
       <c r="AX17" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AY17" t="n">
         <v>1</v>
       </c>
       <c r="AZ17" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="BA17" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BB17" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BC17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BD17" t="n">
         <v>10</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>12-14-2013-14</t>
+          <t>2013-12-14</t>
         </is>
       </c>
     </row>
@@ -3578,37 +3645,37 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E18" t="n">
         <v>5</v>
       </c>
       <c r="F18" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G18" t="n">
-        <v>0.208</v>
+        <v>0.217</v>
       </c>
       <c r="H18" t="n">
-        <v>48.6</v>
+        <v>48.7</v>
       </c>
       <c r="I18" t="n">
-        <v>33.8</v>
+        <v>33.7</v>
       </c>
       <c r="J18" t="n">
         <v>81.2</v>
       </c>
       <c r="K18" t="n">
-        <v>0.417</v>
+        <v>0.416</v>
       </c>
       <c r="L18" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="M18" t="n">
-        <v>18.8</v>
+        <v>18.9</v>
       </c>
       <c r="N18" t="n">
-        <v>0.361</v>
+        <v>0.363</v>
       </c>
       <c r="O18" t="n">
         <v>15.3</v>
@@ -3617,46 +3684,46 @@
         <v>19.8</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.774</v>
+        <v>0.771</v>
       </c>
       <c r="R18" t="n">
-        <v>10.8</v>
+        <v>10.9</v>
       </c>
       <c r="S18" t="n">
-        <v>29</v>
+        <v>28.8</v>
       </c>
       <c r="T18" t="n">
-        <v>39.8</v>
+        <v>39.7</v>
       </c>
       <c r="U18" t="n">
-        <v>20.4</v>
+        <v>20.7</v>
       </c>
       <c r="V18" t="n">
         <v>16.2</v>
       </c>
       <c r="W18" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="X18" t="n">
         <v>5.5</v>
       </c>
       <c r="Y18" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="Z18" t="n">
-        <v>20.4</v>
+        <v>20.6</v>
       </c>
       <c r="AA18" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="AB18" t="n">
-        <v>89.8</v>
+        <v>89.59999999999999</v>
       </c>
       <c r="AC18" t="n">
-        <v>-8.9</v>
+        <v>-8.699999999999999</v>
       </c>
       <c r="AD18" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AE18" t="n">
         <v>30</v>
@@ -3668,25 +3735,25 @@
         <v>30</v>
       </c>
       <c r="AH18" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AI18" t="n">
         <v>29</v>
       </c>
       <c r="AJ18" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AK18" t="n">
         <v>29</v>
       </c>
       <c r="AL18" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AM18" t="n">
         <v>22</v>
       </c>
       <c r="AN18" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AO18" t="n">
         <v>28</v>
@@ -3698,7 +3765,7 @@
         <v>11</v>
       </c>
       <c r="AR18" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AS18" t="n">
         <v>28</v>
@@ -3707,25 +3774,25 @@
         <v>28</v>
       </c>
       <c r="AU18" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AV18" t="n">
         <v>24</v>
       </c>
       <c r="AW18" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AX18" t="n">
         <v>7</v>
       </c>
       <c r="AY18" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AZ18" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BA18" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BB18" t="n">
         <v>30</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>12-14-2013-14</t>
+          <t>2013-12-14</t>
         </is>
       </c>
     </row>
@@ -3838,19 +3905,19 @@
         <v>3.6</v>
       </c>
       <c r="AD19" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="AE19" t="n">
         <v>13</v>
       </c>
       <c r="AF19" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AG19" t="n">
         <v>14</v>
       </c>
       <c r="AH19" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AI19" t="n">
         <v>12</v>
@@ -3859,13 +3926,13 @@
         <v>1</v>
       </c>
       <c r="AK19" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AL19" t="n">
         <v>12</v>
       </c>
       <c r="AM19" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AN19" t="n">
         <v>24</v>
@@ -3877,22 +3944,22 @@
         <v>3</v>
       </c>
       <c r="AQ19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AR19" t="n">
         <v>3</v>
       </c>
       <c r="AS19" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AT19" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AU19" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AV19" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AW19" t="n">
         <v>1</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>12-14-2013-14</t>
+          <t>2013-12-14</t>
         </is>
       </c>
     </row>
@@ -4020,7 +4087,7 @@
         <v>1.3</v>
       </c>
       <c r="AD20" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AE20" t="n">
         <v>13</v>
@@ -4035,7 +4102,7 @@
         <v>3</v>
       </c>
       <c r="AI20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AJ20" t="n">
         <v>3</v>
@@ -4053,7 +4120,7 @@
         <v>4</v>
       </c>
       <c r="AO20" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP20" t="n">
         <v>12</v>
@@ -4095,7 +4162,7 @@
         <v>6</v>
       </c>
       <c r="BC20" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BD20" t="n">
         <v>10</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>12-14-2013-14</t>
+          <t>2013-12-14</t>
         </is>
       </c>
     </row>
@@ -4124,55 +4191,55 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E21" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F21" t="n">
         <v>16</v>
       </c>
       <c r="G21" t="n">
-        <v>0.304</v>
+        <v>0.273</v>
       </c>
       <c r="H21" t="n">
         <v>48.2</v>
       </c>
       <c r="I21" t="n">
-        <v>36</v>
+        <v>35.6</v>
       </c>
       <c r="J21" t="n">
-        <v>83.2</v>
+        <v>83</v>
       </c>
       <c r="K21" t="n">
-        <v>0.433</v>
+        <v>0.429</v>
       </c>
       <c r="L21" t="n">
         <v>8.6</v>
       </c>
       <c r="M21" t="n">
-        <v>24.8</v>
+        <v>25.1</v>
       </c>
       <c r="N21" t="n">
-        <v>0.345</v>
+        <v>0.342</v>
       </c>
       <c r="O21" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="P21" t="n">
         <v>17.4</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.783</v>
+        <v>0.78</v>
       </c>
       <c r="R21" t="n">
-        <v>10.7</v>
+        <v>10.5</v>
       </c>
       <c r="S21" t="n">
-        <v>28</v>
+        <v>28.5</v>
       </c>
       <c r="T21" t="n">
-        <v>38.7</v>
+        <v>39</v>
       </c>
       <c r="U21" t="n">
         <v>19.9</v>
@@ -4181,43 +4248,43 @@
         <v>12.7</v>
       </c>
       <c r="W21" t="n">
-        <v>8.6</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="X21" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="Y21" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="Z21" t="n">
-        <v>22.4</v>
+        <v>22.7</v>
       </c>
       <c r="AA21" t="n">
-        <v>18.7</v>
+        <v>18.5</v>
       </c>
       <c r="AB21" t="n">
-        <v>94.2</v>
+        <v>93.40000000000001</v>
       </c>
       <c r="AC21" t="n">
-        <v>-3.6</v>
+        <v>-4</v>
       </c>
       <c r="AD21" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AE21" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AF21" t="n">
         <v>26</v>
       </c>
       <c r="AG21" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AH21" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AI21" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AJ21" t="n">
         <v>13</v>
@@ -4229,7 +4296,7 @@
         <v>7</v>
       </c>
       <c r="AM21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AN21" t="n">
         <v>19</v>
@@ -4241,10 +4308,10 @@
         <v>29</v>
       </c>
       <c r="AQ21" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AR21" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AS21" t="n">
         <v>30</v>
@@ -4259,22 +4326,22 @@
         <v>1</v>
       </c>
       <c r="AW21" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AX21" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AY21" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AZ21" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="BA21" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="BB21" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="BC21" t="n">
         <v>24</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>12-14-2013-14</t>
+          <t>2013-12-14</t>
         </is>
       </c>
     </row>
@@ -4384,16 +4451,16 @@
         <v>7.1</v>
       </c>
       <c r="AD22" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="AE22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AF22" t="n">
         <v>2</v>
       </c>
       <c r="AG22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AH22" t="n">
         <v>11</v>
@@ -4450,7 +4517,7 @@
         <v>10</v>
       </c>
       <c r="AZ22" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BA22" t="n">
         <v>14</v>
@@ -4459,7 +4526,7 @@
         <v>3</v>
       </c>
       <c r="BC22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BD22" t="n">
         <v>10</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>12-14-2013-14</t>
+          <t>2013-12-14</t>
         </is>
       </c>
     </row>
@@ -4566,7 +4633,7 @@
         <v>-4.4</v>
       </c>
       <c r="AD23" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="AE23" t="n">
         <v>25</v>
@@ -4578,7 +4645,7 @@
         <v>25</v>
       </c>
       <c r="AH23" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AI23" t="n">
         <v>18</v>
@@ -4593,13 +4660,13 @@
         <v>15</v>
       </c>
       <c r="AM23" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AN23" t="n">
         <v>16</v>
       </c>
       <c r="AO23" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AP23" t="n">
         <v>25</v>
@@ -4611,31 +4678,31 @@
         <v>27</v>
       </c>
       <c r="AS23" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AT23" t="n">
         <v>21</v>
       </c>
       <c r="AU23" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AV23" t="n">
+        <v>24</v>
+      </c>
+      <c r="AW23" t="n">
+        <v>16</v>
+      </c>
+      <c r="AX23" t="n">
+        <v>17</v>
+      </c>
+      <c r="AY23" t="n">
         <v>25</v>
       </c>
-      <c r="AW23" t="n">
-        <v>15</v>
-      </c>
-      <c r="AX23" t="n">
-        <v>18</v>
-      </c>
-      <c r="AY23" t="n">
-        <v>23</v>
-      </c>
       <c r="AZ23" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BA23" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BB23" t="n">
         <v>21</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>12-14-2013-14</t>
+          <t>2013-12-14</t>
         </is>
       </c>
     </row>
@@ -4670,19 +4737,19 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E24" t="n">
         <v>7</v>
       </c>
       <c r="F24" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G24" t="n">
-        <v>0.28</v>
+        <v>0.292</v>
       </c>
       <c r="H24" t="n">
-        <v>49.2</v>
+        <v>49.3</v>
       </c>
       <c r="I24" t="n">
         <v>39.3</v>
@@ -4697,34 +4764,34 @@
         <v>7.2</v>
       </c>
       <c r="M24" t="n">
-        <v>22.1</v>
+        <v>22.4</v>
       </c>
       <c r="N24" t="n">
-        <v>0.328</v>
+        <v>0.32</v>
       </c>
       <c r="O24" t="n">
-        <v>16</v>
+        <v>15.9</v>
       </c>
       <c r="P24" t="n">
-        <v>22.6</v>
+        <v>22.5</v>
       </c>
       <c r="Q24" t="n">
         <v>0.707</v>
       </c>
       <c r="R24" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="S24" t="n">
-        <v>33.4</v>
+        <v>33.8</v>
       </c>
       <c r="T24" t="n">
-        <v>45.1</v>
+        <v>45.6</v>
       </c>
       <c r="U24" t="n">
-        <v>22.7</v>
+        <v>22.5</v>
       </c>
       <c r="V24" t="n">
-        <v>17.9</v>
+        <v>18</v>
       </c>
       <c r="W24" t="n">
         <v>8.300000000000001</v>
@@ -4736,19 +4803,19 @@
         <v>6.6</v>
       </c>
       <c r="Z24" t="n">
-        <v>20.7</v>
+        <v>21</v>
       </c>
       <c r="AA24" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="AB24" t="n">
-        <v>101.9</v>
+        <v>101.8</v>
       </c>
       <c r="AC24" t="n">
-        <v>-8.6</v>
+        <v>-7.5</v>
       </c>
       <c r="AD24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE24" t="n">
         <v>25</v>
@@ -4757,13 +4824,13 @@
         <v>28</v>
       </c>
       <c r="AG24" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AH24" t="n">
         <v>2</v>
       </c>
       <c r="AI24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ24" t="n">
         <v>2</v>
@@ -4778,52 +4845,52 @@
         <v>11</v>
       </c>
       <c r="AN24" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AO24" t="n">
         <v>22</v>
       </c>
       <c r="AP24" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AQ24" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AR24" t="n">
+        <v>9</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>5</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>5</v>
+      </c>
+      <c r="AU24" t="n">
         <v>11</v>
-      </c>
-      <c r="AS24" t="n">
-        <v>6</v>
-      </c>
-      <c r="AT24" t="n">
-        <v>7</v>
-      </c>
-      <c r="AU24" t="n">
-        <v>10</v>
       </c>
       <c r="AV24" t="n">
         <v>30</v>
       </c>
       <c r="AW24" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AX24" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AY24" t="n">
         <v>29</v>
       </c>
       <c r="AZ24" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BA24" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BB24" t="n">
         <v>13</v>
       </c>
       <c r="BC24" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BD24" t="n">
         <v>10</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>12-14-2013-14</t>
+          <t>2013-12-14</t>
         </is>
       </c>
     </row>
@@ -4930,10 +4997,10 @@
         <v>2.2</v>
       </c>
       <c r="AD25" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="AE25" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AF25" t="n">
         <v>7</v>
@@ -4945,7 +5012,7 @@
         <v>17</v>
       </c>
       <c r="AI25" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AJ25" t="n">
         <v>20</v>
@@ -4969,7 +5036,7 @@
         <v>14</v>
       </c>
       <c r="AQ25" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AR25" t="n">
         <v>15</v>
@@ -4987,7 +5054,7 @@
         <v>22</v>
       </c>
       <c r="AW25" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AX25" t="n">
         <v>12</v>
@@ -4996,7 +5063,7 @@
         <v>4</v>
       </c>
       <c r="AZ25" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BA25" t="n">
         <v>16</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>12-14-2013-14</t>
+          <t>2013-12-14</t>
         </is>
       </c>
     </row>
@@ -5034,88 +5101,88 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E26" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F26" t="n">
         <v>4</v>
       </c>
       <c r="G26" t="n">
-        <v>0.833</v>
+        <v>0.826</v>
       </c>
       <c r="H26" t="n">
         <v>48.2</v>
       </c>
       <c r="I26" t="n">
-        <v>39.7</v>
+        <v>39.2</v>
       </c>
       <c r="J26" t="n">
-        <v>86</v>
+        <v>85.7</v>
       </c>
       <c r="K26" t="n">
-        <v>0.462</v>
+        <v>0.457</v>
       </c>
       <c r="L26" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="M26" t="n">
-        <v>23.9</v>
+        <v>23.3</v>
       </c>
       <c r="N26" t="n">
-        <v>0.419</v>
+        <v>0.409</v>
       </c>
       <c r="O26" t="n">
-        <v>18.3</v>
+        <v>18.5</v>
       </c>
       <c r="P26" t="n">
-        <v>22.5</v>
+        <v>22.7</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.8129999999999999</v>
+        <v>0.8179999999999999</v>
       </c>
       <c r="R26" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="S26" t="n">
-        <v>32.6</v>
+        <v>32.7</v>
       </c>
       <c r="T26" t="n">
         <v>45.5</v>
       </c>
       <c r="U26" t="n">
-        <v>23.6</v>
+        <v>22.8</v>
       </c>
       <c r="V26" t="n">
-        <v>14.5</v>
+        <v>14.3</v>
       </c>
       <c r="W26" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="X26" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="Y26" t="n">
         <v>3.6</v>
       </c>
       <c r="Z26" t="n">
-        <v>18.5</v>
+        <v>18.7</v>
       </c>
       <c r="AA26" t="n">
-        <v>20.9</v>
+        <v>21.2</v>
       </c>
       <c r="AB26" t="n">
-        <v>107.8</v>
+        <v>106.4</v>
       </c>
       <c r="AC26" t="n">
-        <v>7.5</v>
+        <v>6.3</v>
       </c>
       <c r="AD26" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AE26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF26" t="n">
         <v>2</v>
@@ -5124,28 +5191,28 @@
         <v>2</v>
       </c>
       <c r="AH26" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AI26" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AJ26" t="n">
         <v>4</v>
       </c>
       <c r="AK26" t="n">
+        <v>9</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>4</v>
+      </c>
+      <c r="AM26" t="n">
         <v>8</v>
       </c>
-      <c r="AL26" t="n">
+      <c r="AN26" t="n">
         <v>2</v>
       </c>
-      <c r="AM26" t="n">
-        <v>5</v>
-      </c>
-      <c r="AN26" t="n">
-        <v>1</v>
-      </c>
       <c r="AO26" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AP26" t="n">
         <v>16</v>
@@ -5154,40 +5221,40 @@
         <v>2</v>
       </c>
       <c r="AR26" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AS26" t="n">
         <v>9</v>
       </c>
       <c r="AT26" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AU26" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV26" t="n">
         <v>6</v>
-      </c>
-      <c r="AV26" t="n">
-        <v>9</v>
       </c>
       <c r="AW26" t="n">
         <v>30</v>
       </c>
       <c r="AX26" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AY26" t="n">
         <v>3</v>
       </c>
       <c r="AZ26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BA26" t="n">
         <v>13</v>
       </c>
       <c r="BB26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BC26" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BD26" t="n">
         <v>10</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>12-14-2013-14</t>
+          <t>2013-12-14</t>
         </is>
       </c>
     </row>
@@ -5294,10 +5361,10 @@
         <v>-3.3</v>
       </c>
       <c r="AD27" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AE27" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AF27" t="n">
         <v>24</v>
@@ -5315,7 +5382,7 @@
         <v>10</v>
       </c>
       <c r="AK27" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AL27" t="n">
         <v>19</v>
@@ -5327,22 +5394,22 @@
         <v>25</v>
       </c>
       <c r="AO27" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AP27" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AQ27" t="n">
         <v>5</v>
       </c>
       <c r="AR27" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AS27" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AT27" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AU27" t="n">
         <v>17</v>
@@ -5363,7 +5430,7 @@
         <v>30</v>
       </c>
       <c r="BA27" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BB27" t="n">
         <v>17</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>12-14-2013-14</t>
+          <t>2013-12-14</t>
         </is>
       </c>
     </row>
@@ -5398,16 +5465,16 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E28" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F28" t="n">
         <v>4</v>
       </c>
       <c r="G28" t="n">
-        <v>0.826</v>
+        <v>0.8179999999999999</v>
       </c>
       <c r="H28" t="n">
         <v>48</v>
@@ -5416,10 +5483,10 @@
         <v>41.4</v>
       </c>
       <c r="J28" t="n">
-        <v>83.7</v>
+        <v>83.5</v>
       </c>
       <c r="K28" t="n">
-        <v>0.494</v>
+        <v>0.496</v>
       </c>
       <c r="L28" t="n">
         <v>8.4</v>
@@ -5431,52 +5498,52 @@
         <v>0.402</v>
       </c>
       <c r="O28" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="P28" t="n">
-        <v>16</v>
+        <v>16.2</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.759</v>
+        <v>0.756</v>
       </c>
       <c r="R28" t="n">
-        <v>8.699999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="S28" t="n">
-        <v>34.2</v>
+        <v>33.8</v>
       </c>
       <c r="T28" t="n">
-        <v>43</v>
+        <v>42.4</v>
       </c>
       <c r="U28" t="n">
-        <v>25.3</v>
+        <v>25.4</v>
       </c>
       <c r="V28" t="n">
-        <v>14.5</v>
+        <v>14.7</v>
       </c>
       <c r="W28" t="n">
-        <v>8</v>
+        <v>8.1</v>
       </c>
       <c r="X28" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="Y28" t="n">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="Z28" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="AA28" t="n">
         <v>17.5</v>
       </c>
       <c r="AB28" t="n">
-        <v>103.3</v>
+        <v>103.5</v>
       </c>
       <c r="AC28" t="n">
-        <v>10.2</v>
+        <v>9.9</v>
       </c>
       <c r="AD28" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AE28" t="n">
         <v>3</v>
@@ -5500,7 +5567,7 @@
         <v>2</v>
       </c>
       <c r="AL28" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AM28" t="n">
         <v>18</v>
@@ -5518,28 +5585,28 @@
         <v>17</v>
       </c>
       <c r="AR28" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AS28" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AT28" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="AU28" t="n">
         <v>1</v>
       </c>
       <c r="AV28" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AW28" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AX28" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AY28" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AZ28" t="n">
         <v>2</v>
@@ -5548,7 +5615,7 @@
         <v>30</v>
       </c>
       <c r="BB28" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BC28" t="n">
         <v>1</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>12-14-2013-14</t>
+          <t>2013-12-14</t>
         </is>
       </c>
     </row>
@@ -5580,112 +5647,112 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E29" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F29" t="n">
         <v>13</v>
       </c>
       <c r="G29" t="n">
-        <v>0.409</v>
+        <v>0.381</v>
       </c>
       <c r="H29" t="n">
         <v>48.7</v>
       </c>
       <c r="I29" t="n">
-        <v>35.9</v>
+        <v>35.7</v>
       </c>
       <c r="J29" t="n">
         <v>82.7</v>
       </c>
       <c r="K29" t="n">
-        <v>0.434</v>
+        <v>0.431</v>
       </c>
       <c r="L29" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="M29" t="n">
-        <v>21.5</v>
+        <v>21.9</v>
       </c>
       <c r="N29" t="n">
         <v>0.338</v>
       </c>
       <c r="O29" t="n">
-        <v>19.5</v>
+        <v>19.8</v>
       </c>
       <c r="P29" t="n">
-        <v>24.9</v>
+        <v>25.2</v>
       </c>
       <c r="Q29" t="n">
         <v>0.784</v>
       </c>
       <c r="R29" t="n">
-        <v>12</v>
+        <v>12.2</v>
       </c>
       <c r="S29" t="n">
-        <v>30.7</v>
+        <v>30.4</v>
       </c>
       <c r="T29" t="n">
         <v>42.6</v>
       </c>
       <c r="U29" t="n">
-        <v>18.3</v>
+        <v>18</v>
       </c>
       <c r="V29" t="n">
-        <v>14.8</v>
+        <v>15</v>
       </c>
       <c r="W29" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="X29" t="n">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="Y29" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="Z29" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="AA29" t="n">
         <v>22.4</v>
-      </c>
-      <c r="AA29" t="n">
-        <v>22.3</v>
       </c>
       <c r="AB29" t="n">
         <v>98.5</v>
       </c>
       <c r="AC29" t="n">
-        <v>0.2</v>
+        <v>-0.9</v>
       </c>
       <c r="AD29" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AE29" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AF29" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AG29" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AH29" t="n">
         <v>5</v>
       </c>
       <c r="AI29" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AJ29" t="n">
         <v>15</v>
       </c>
       <c r="AK29" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AL29" t="n">
         <v>16</v>
       </c>
       <c r="AM29" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AN29" t="n">
         <v>22</v>
@@ -5703,37 +5770,37 @@
         <v>7</v>
       </c>
       <c r="AS29" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AT29" t="n">
         <v>16</v>
       </c>
       <c r="AU29" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AV29" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AW29" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AX29" t="n">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="AY29" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AZ29" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BA29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BB29" t="n">
         <v>18</v>
       </c>
       <c r="BC29" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="BD29" t="n">
         <v>10</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>12-14-2013-14</t>
+          <t>2013-12-14</t>
         </is>
       </c>
     </row>
@@ -5762,16 +5829,16 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E30" t="n">
         <v>6</v>
       </c>
       <c r="F30" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G30" t="n">
-        <v>0.231</v>
+        <v>0.24</v>
       </c>
       <c r="H30" t="n">
         <v>48.4</v>
@@ -5780,70 +5847,70 @@
         <v>35.5</v>
       </c>
       <c r="J30" t="n">
-        <v>81.8</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="K30" t="n">
-        <v>0.433</v>
+        <v>0.435</v>
       </c>
       <c r="L30" t="n">
         <v>6</v>
       </c>
       <c r="M30" t="n">
-        <v>17.7</v>
+        <v>17.6</v>
       </c>
       <c r="N30" t="n">
-        <v>0.339</v>
+        <v>0.341</v>
       </c>
       <c r="O30" t="n">
-        <v>16.4</v>
+        <v>16.8</v>
       </c>
       <c r="P30" t="n">
-        <v>21.9</v>
+        <v>22.4</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.749</v>
+        <v>0.75</v>
       </c>
       <c r="R30" t="n">
-        <v>11.9</v>
+        <v>12.1</v>
       </c>
       <c r="S30" t="n">
-        <v>29</v>
+        <v>28.8</v>
       </c>
       <c r="T30" t="n">
-        <v>40.9</v>
+        <v>40.8</v>
       </c>
       <c r="U30" t="n">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
       <c r="V30" t="n">
-        <v>15.7</v>
+        <v>16</v>
       </c>
       <c r="W30" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="X30" t="n">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="Y30" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="Z30" t="n">
-        <v>22</v>
+        <v>22.2</v>
       </c>
       <c r="AA30" t="n">
-        <v>21.4</v>
+        <v>21.6</v>
       </c>
       <c r="AB30" t="n">
-        <v>93.3</v>
+        <v>93.7</v>
       </c>
       <c r="AC30" t="n">
-        <v>-8.300000000000001</v>
+        <v>-8</v>
       </c>
       <c r="AD30" t="n">
         <v>1</v>
       </c>
       <c r="AE30" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AF30" t="n">
         <v>30</v>
@@ -5858,10 +5925,10 @@
         <v>26</v>
       </c>
       <c r="AJ30" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AK30" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AL30" t="n">
         <v>27</v>
@@ -5870,16 +5937,16 @@
         <v>26</v>
       </c>
       <c r="AN30" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AO30" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP30" t="n">
         <v>18</v>
       </c>
-      <c r="AP30" t="n">
-        <v>19</v>
-      </c>
       <c r="AQ30" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AR30" t="n">
         <v>8</v>
@@ -5894,28 +5961,28 @@
         <v>24</v>
       </c>
       <c r="AV30" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AW30" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AX30" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AY30" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AZ30" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BA30" t="n">
         <v>9</v>
       </c>
       <c r="BB30" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BC30" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="BD30" t="n">
         <v>10</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>12-14-2013-14</t>
+          <t>2013-12-14</t>
         </is>
       </c>
     </row>
@@ -5944,73 +6011,73 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E31" t="n">
         <v>9</v>
       </c>
       <c r="F31" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G31" t="n">
-        <v>0.409</v>
+        <v>0.429</v>
       </c>
       <c r="H31" t="n">
         <v>49.4</v>
       </c>
       <c r="I31" t="n">
-        <v>37.2</v>
+        <v>37.1</v>
       </c>
       <c r="J31" t="n">
-        <v>84.40000000000001</v>
+        <v>84.5</v>
       </c>
       <c r="K31" t="n">
-        <v>0.441</v>
+        <v>0.439</v>
       </c>
       <c r="L31" t="n">
-        <v>8.300000000000001</v>
+        <v>8.5</v>
       </c>
       <c r="M31" t="n">
-        <v>22</v>
+        <v>22.4</v>
       </c>
       <c r="N31" t="n">
-        <v>0.376</v>
+        <v>0.381</v>
       </c>
       <c r="O31" t="n">
         <v>15.4</v>
       </c>
       <c r="P31" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.73</v>
+        <v>0.731</v>
       </c>
       <c r="R31" t="n">
-        <v>10.8</v>
+        <v>10.9</v>
       </c>
       <c r="S31" t="n">
-        <v>31.2</v>
+        <v>31.6</v>
       </c>
       <c r="T31" t="n">
-        <v>42</v>
+        <v>42.4</v>
       </c>
       <c r="U31" t="n">
-        <v>23.4</v>
+        <v>23.5</v>
       </c>
       <c r="V31" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="W31" t="n">
-        <v>8.9</v>
+        <v>9</v>
       </c>
       <c r="X31" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="Y31" t="n">
         <v>3.9</v>
       </c>
       <c r="Z31" t="n">
-        <v>19.3</v>
+        <v>19</v>
       </c>
       <c r="AA31" t="n">
         <v>19.5</v>
@@ -6019,16 +6086,16 @@
         <v>98.09999999999999</v>
       </c>
       <c r="AC31" t="n">
-        <v>-1.5</v>
+        <v>-0.9</v>
       </c>
       <c r="AD31" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AE31" t="n">
         <v>20</v>
       </c>
       <c r="AF31" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AG31" t="n">
         <v>20</v>
@@ -6043,52 +6110,52 @@
         <v>9</v>
       </c>
       <c r="AK31" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AL31" t="n">
+        <v>8</v>
+      </c>
+      <c r="AM31" t="n">
         <v>10</v>
       </c>
-      <c r="AM31" t="n">
-        <v>12</v>
-      </c>
       <c r="AN31" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AO31" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AP31" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AQ31" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AR31" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AS31" t="n">
         <v>17</v>
       </c>
       <c r="AT31" t="n">
+        <v>17</v>
+      </c>
+      <c r="AU31" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV31" t="n">
         <v>19</v>
-      </c>
-      <c r="AU31" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV31" t="n">
-        <v>16</v>
       </c>
       <c r="AW31" t="n">
         <v>6</v>
       </c>
       <c r="AX31" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AY31" t="n">
         <v>6</v>
       </c>
       <c r="AZ31" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BA31" t="n">
         <v>22</v>
@@ -6097,7 +6164,7 @@
         <v>19</v>
       </c>
       <c r="BC31" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="BD31" t="n">
         <v>10</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>12-14-2013-14</t>
+          <t>2013-12-14</t>
         </is>
       </c>
     </row>
